--- a/xlsxDataConvert/file.xlsx
+++ b/xlsxDataConvert/file.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Enter/work/python_tool/xlsxDataConvert/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gongxh/work/tools/xlsxDataConvert/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3AB25C-2B41-5C41-952A-C3B73A7AE688}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="5720" windowWidth="20560" windowHeight="11900"/>
+    <workbookView xWindow="39580" yWindow="460" windowWidth="26700" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leveldata" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -168,10 +169,6 @@
     <t>怪物出现权重</t>
   </si>
   <si>
-    <t>list&lt;monsterid:string, weight:int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -193,12 +190,16 @@
     <t>list&lt;int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>list&lt;monsterid:string,weight:int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -248,6 +249,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,7 +280,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -288,6 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1448,14 +1457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A4:E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="4"/>
@@ -1469,7 +1478,7 @@
     <col min="25" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1514,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1513,18 +1522,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1532,18 +1541,18 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="4">
         <v>70001</v>
       </c>
@@ -1554,13 +1563,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="4">
         <v>70002</v>
       </c>
@@ -1571,16 +1580,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="索引表!A1" display="关卡ID"/>
+    <hyperlink ref="A1" location="索引表!A1" display="关卡ID" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/xlsxDataConvert/file.xlsx
+++ b/xlsxDataConvert/file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gongxh/work/tools/xlsxDataConvert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3AB25C-2B41-5C41-952A-C3B73A7AE688}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0473323-F923-9E41-BF0D-2FF50EEECEB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39580" yWindow="460" windowWidth="26700" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39360" yWindow="460" windowWidth="32840" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leveldata" sheetId="3" r:id="rId1"/>
@@ -142,10 +142,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>关卡ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>list&lt;monsterid:string,weight:int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101&amp;102&amp;103&amp;100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -209,14 +213,6 @@
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -274,33 +270,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1461,136 +1456,133 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="4"/>
-    <col min="3" max="3" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="5" customWidth="1"/>
-    <col min="6" max="21" width="8.83203125" style="4"/>
-    <col min="22" max="22" width="11.5" style="4" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="16" style="4" customWidth="1"/>
-    <col min="25" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="9" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="4" customWidth="1"/>
+    <col min="6" max="21" width="8.83203125" style="3"/>
+    <col min="22" max="22" width="11.5" style="3" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="16" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="16">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>70001</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>70002</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="索引表!A1" display="关卡ID" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/xlsxDataConvert/file.xlsx
+++ b/xlsxDataConvert/file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gongxh/work/tools/xlsxDataConvert/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gongxinhai/work/tools/xlsxDataConvert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0473323-F923-9E41-BF0D-2FF50EEECEB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDE9B51-38FB-654C-B876-780DF8559CCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39360" yWindow="460" windowWidth="32840" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32840" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leveldata" sheetId="3" r:id="rId1"/>
@@ -30,35 +30,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-格式为“传送类别，传送位置数据”；类别说明如下：
-1：传送到的关卡与当前关卡有对应的数值加减关系；
-2：传送到指定的关卡ID；
-3：传送到的关卡与当前关卡前一关有对应的数值加减关系；</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
@@ -137,12 +108,41 @@
         </r>
       </text>
     </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+格式为“传送类别，传送位置数据”；类别说明如下：
+1：传送到的关卡与当前关卡有对应的数值加减关系；
+2：传送到指定的关卡ID；
+3：传送到的关卡与当前关卡前一关有对应的数值加减关系；</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -196,6 +196,10 @@
   </si>
   <si>
     <t>101&amp;102&amp;103&amp;100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1453,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1473,22 +1477,11 @@
     <col min="25" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="1" spans="1:24">
+      <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1509,64 +1502,64 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
+    <row r="2" spans="1:24" ht="16">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="3">
-        <v>70001</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>16</v>
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="3">
-        <v>70002</v>
+        <v>70001</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -1574,10 +1567,27 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="3">
+        <v>70002</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/xlsxDataConvert/file.xlsx
+++ b/xlsxDataConvert/file.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gongxinhai/work/tools/xlsxDataConvert/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gongxh/work/python_tool/xlsxDataConvert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDE9B51-38FB-654C-B876-780DF8559CCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECE1061-6D54-1B40-A921-1B7EB1FCE0D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32840" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="1940" windowWidth="32840" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="leveldata" sheetId="3" r:id="rId1"/>
+    <sheet name="temp" sheetId="3" r:id="rId1"/>
+    <sheet name="leveldata" sheetId="4" r:id="rId2"/>
+    <sheet name="chapterdata" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
@@ -142,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -154,9 +156,6 @@
     <t>level_id</t>
   </si>
   <si>
-    <t>chapter_id</t>
-  </si>
-  <si>
     <t>章节</t>
   </si>
   <si>
@@ -170,9 +169,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>monter_list</t>
@@ -201,13 +197,194 @@
   <si>
     <t>dict</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡1描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter_id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>70001</t>
+  </si>
+  <si>
+    <t>70001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡3</t>
+  </si>
+  <si>
+    <t>关卡4</t>
+  </si>
+  <si>
+    <t>关卡5</t>
+  </si>
+  <si>
+    <t>关卡6</t>
+  </si>
+  <si>
+    <t>关卡7</t>
+  </si>
+  <si>
+    <t>关卡8</t>
+  </si>
+  <si>
+    <t>关卡9</t>
+  </si>
+  <si>
+    <t>关卡10</t>
+  </si>
+  <si>
+    <t>关卡2描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡3描述</t>
+  </si>
+  <si>
+    <t>关卡4描述</t>
+  </si>
+  <si>
+    <t>关卡5描述</t>
+  </si>
+  <si>
+    <t>关卡6描述</t>
+  </si>
+  <si>
+    <t>关卡7描述</t>
+  </si>
+  <si>
+    <t>关卡8描述</t>
+  </si>
+  <si>
+    <t>关卡9描述</t>
+  </si>
+  <si>
+    <t>关卡10描述</t>
+  </si>
+  <si>
+    <t>map103</t>
+  </si>
+  <si>
+    <t>map104</t>
+  </si>
+  <si>
+    <t>map105</t>
+  </si>
+  <si>
+    <t>map106</t>
+  </si>
+  <si>
+    <t>map107</t>
+  </si>
+  <si>
+    <t>map108</t>
+  </si>
+  <si>
+    <t>map109</t>
+  </si>
+  <si>
+    <t>map110</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节1描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节2描述</t>
+  </si>
+  <si>
+    <t>章节1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节2</t>
+  </si>
+  <si>
+    <t>level_list</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>101&amp;102&amp;103&amp;104&amp;105&amp;106&amp;107&amp;108&amp;109&amp;110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111&amp;112&amp;113&amp;114&amp;115&amp;116&amp;117&amp;118&amp;119&amp;120</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss名字</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss1_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -256,6 +433,36 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -279,7 +486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -297,6 +504,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1459,14 +1697,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D6" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" style="4" customWidth="1"/>
@@ -1477,9 +1715,9 @@
     <col min="25" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="8" t="s">
-        <v>17</v>
+    <row r="1" spans="1:24" ht="21" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="B1" s="8"/>
       <c r="F1" s="1"/>
@@ -1507,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -1525,17 +1763,17 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -1544,51 +1782,51 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="3">
-        <v>70001</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="3">
-        <v>70002</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1597,4 +1835,374 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8031B1B-14F6-BC40-BFA5-6EA2B71CCED6}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23">
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11">
+        <v>101</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11">
+        <v>102</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11">
+        <v>103</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="11">
+        <v>104</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="11">
+        <v>105</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11">
+        <v>106</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="11">
+        <v>107</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="11">
+        <v>108</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="11">
+        <v>109</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="11">
+        <v>110</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA0C8FC-B519-0448-BB36-7696D1D01106}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23">
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="11">
+        <v>70001</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="11">
+        <v>70002</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xlsxDataConvert/file.xlsx
+++ b/xlsxDataConvert/file.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gongxh/work/python_tool/xlsxDataConvert/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gongxh/learn/python/tools/xlsxDataConvert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECE1061-6D54-1B40-A921-1B7EB1FCE0D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB6CAF-435F-9D4D-9C1A-DF9271A9878B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1940" windowWidth="32840" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="780" windowWidth="32840" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="temp" sheetId="3" r:id="rId1"/>
-    <sheet name="leveldata" sheetId="4" r:id="rId2"/>
-    <sheet name="chapterdata" sheetId="5" r:id="rId3"/>
+    <sheet name="leveldata" sheetId="4" r:id="rId1"/>
+    <sheet name="chapterdata" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
@@ -26,125 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-格式为“存在的最小值，存在的最大值”</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-与怪物、特殊地表、机关等元素有关联，只能出现小于等于该数值的元素</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-其中-1代表隐藏关；-2代表隐藏章；其他正数代表具体的对应章节</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-格式为“传送类别，传送位置数据”；类别说明如下：
-1：传送到的关卡与当前关卡有对应的数值加减关系；
-2：传送到指定的关卡ID；
-3：传送到的关卡与当前关卡前一关有对应的数值加减关系；</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -159,42 +41,13 @@
     <t>章节</t>
   </si>
   <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>可出现怪物ID列表</t>
-  </si>
-  <si>
-    <t>怪物出现权重</t>
-  </si>
-  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>monter_list</t>
-  </si>
-  <si>
-    <t>monster_weight</t>
-  </si>
-  <si>
-    <t>101&amp;102&amp;103</t>
-  </si>
-  <si>
-    <t>101,5&amp;102,5&amp;103,6</t>
   </si>
   <si>
     <t>list&lt;int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list&lt;monsterid:string,weight:int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101&amp;102&amp;103&amp;100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dict</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,34 +73,34 @@
   </si>
   <si>
     <t>关卡1描述</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>章节</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>chapter_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>70001</t>
   </si>
   <si>
     <t>70001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>关卡1</t>
@@ -255,7 +108,7 @@
   </si>
   <si>
     <t>关卡2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>关卡3</t>
@@ -283,7 +136,7 @@
   </si>
   <si>
     <t>关卡2描述</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>关卡3描述</t>
@@ -339,7 +192,7 @@
   </si>
   <si>
     <t>章节1描述</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>章节2描述</t>
@@ -353,7 +206,7 @@
   </si>
   <si>
     <t>level_list</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>101&amp;102&amp;103&amp;104&amp;105&amp;106&amp;107&amp;108&amp;109&amp;110</t>
@@ -361,30 +214,30 @@
   </si>
   <si>
     <t>111&amp;112&amp;113&amp;114&amp;115&amp;116&amp;117&amp;118&amp;119&amp;120</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>boss名字</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>boss_name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Boss1_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -410,21 +263,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -486,53 +324,43 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1694,155 +1522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X6"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D6" sqref="D3:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="4" customWidth="1"/>
-    <col min="6" max="21" width="8.83203125" style="3"/>
-    <col min="22" max="22" width="11.5" style="3" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="16" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="8.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="21" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" ht="16">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="3">
-        <v>101</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="3">
-        <v>102</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8031B1B-14F6-BC40-BFA5-6EA2B71CCED6}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1852,269 +1536,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" ht="16">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5">
+        <v>101</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5">
+        <v>102</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5">
+        <v>103</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5">
+        <v>104</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5">
+        <v>105</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="E9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5">
+        <v>106</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5">
+        <v>107</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11">
-        <v>101</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5">
+        <v>108</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5">
+        <v>109</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5">
+        <v>110</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11">
-        <v>102</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="E14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="11">
-        <v>103</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="11">
-        <v>104</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="11">
-        <v>105</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="11">
-        <v>106</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="11">
-        <v>107</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="11">
-        <v>108</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="11">
-        <v>109</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="11">
-        <v>110</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>66</v>
+      <c r="F14" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA0C8FC-B519-0448-BB36-7696D1D01106}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2124,85 +1808,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23">
-      <c r="A1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="16">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>20</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>70001</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>59</v>
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11">
+      <c r="A6" s="5">
         <v>70002</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>60</v>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>